--- a/public/DataImport/Template_Data_Branch (1).xlsx
+++ b/public/DataImport/Template_Data_Branch (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezafakhreza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE244F-1C12-459E-8013-2A98D76DA972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5CA1E-F5BE-49DD-B3B3-825AB0E76CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A70ECEC-4C3A-4CD6-8485-3ECBF184CBA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A70ECEC-4C3A-4CD6-8485-3ECBF184CBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="113">
   <si>
     <t>Kode Uker</t>
   </si>
@@ -42,12 +42,6 @@
     <t>SBO</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>KC AMBON</t>
-  </si>
-  <si>
     <t>KC</t>
   </si>
   <si>
@@ -58,13 +52,325 @@
   </si>
   <si>
     <t>Uker Induk (Kanwil)</t>
+  </si>
+  <si>
+    <t>Nama Kanwil</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE MAKASSAR</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>KANTOR PUSAT</t>
+  </si>
+  <si>
+    <t>Kanpus</t>
+  </si>
+  <si>
+    <t>0449</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE BANDAR LAMPUNG</t>
+  </si>
+  <si>
+    <t>Regional Office</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE BANDUNG</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE BANJARMASIN</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE DENPASAR</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE JAKARTA 1</t>
+  </si>
+  <si>
+    <t>0317</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE JAKARTA 2</t>
+  </si>
+  <si>
+    <t>0853</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE JAKARTA 3</t>
+  </si>
+  <si>
+    <t>0856</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE JAYAPURA</t>
+  </si>
+  <si>
+    <t>0854</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE MALANG</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE MANADO</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE MEDAN</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE PADANG</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE PALEMBANG</t>
+  </si>
+  <si>
+    <t>0855</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE PEKANBARU</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE SEMARANG</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE SURABAYA</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>0451</t>
+  </si>
+  <si>
+    <t>AIW BANDAR LAMPUNG</t>
+  </si>
+  <si>
+    <t>AIW</t>
+  </si>
+  <si>
+    <t>0292</t>
+  </si>
+  <si>
+    <t>AIW BANDUNG</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>AIW BANJARMASIN</t>
+  </si>
+  <si>
+    <t>0297</t>
+  </si>
+  <si>
+    <t>AIW DENPASAR</t>
+  </si>
+  <si>
+    <t>0291</t>
+  </si>
+  <si>
+    <t>AIW JAKARTA 1</t>
+  </si>
+  <si>
+    <t>0858</t>
+  </si>
+  <si>
+    <t>AIW JAKARTA 2</t>
+  </si>
+  <si>
+    <t>0850</t>
+  </si>
+  <si>
+    <t>AIW JAKARTA 3</t>
+  </si>
+  <si>
+    <t>0857</t>
+  </si>
+  <si>
+    <t>AIW JAYAPURA</t>
+  </si>
+  <si>
+    <t>0298</t>
+  </si>
+  <si>
+    <t>AIW MAKASSAR</t>
+  </si>
+  <si>
+    <t>0851</t>
+  </si>
+  <si>
+    <t>AIW MALANG</t>
+  </si>
+  <si>
+    <t>0299</t>
+  </si>
+  <si>
+    <t>AIW MANADO</t>
+  </si>
+  <si>
+    <t>0288</t>
+  </si>
+  <si>
+    <t>AIW MEDAN</t>
+  </si>
+  <si>
+    <t>0289</t>
+  </si>
+  <si>
+    <t>AIW PADANG</t>
+  </si>
+  <si>
+    <t>0290</t>
+  </si>
+  <si>
+    <t>AIW PALEMBANG</t>
+  </si>
+  <si>
+    <t>0859</t>
+  </si>
+  <si>
+    <t>AIW PEKANBARU</t>
+  </si>
+  <si>
+    <t>0294</t>
+  </si>
+  <si>
+    <t>AIW SEMARANG</t>
+  </si>
+  <si>
+    <t>0296</t>
+  </si>
+  <si>
+    <t>AIW SURABAYA</t>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <t>AIW YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>0364</t>
+  </si>
+  <si>
+    <t>CAMPUS RAGUNAN</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>0348</t>
+  </si>
+  <si>
+    <t>CAMPUS BANDUNG</t>
+  </si>
+  <si>
+    <t>0365</t>
+  </si>
+  <si>
+    <t>CAMPUS JAKARTA</t>
+  </si>
+  <si>
+    <t>0351</t>
+  </si>
+  <si>
+    <t>CAMPUS MAKASSAR</t>
+  </si>
+  <si>
+    <t>0350</t>
+  </si>
+  <si>
+    <t>CAMPUS SURABAYA</t>
+  </si>
+  <si>
+    <t>0349</t>
+  </si>
+  <si>
+    <t>CAMPUS YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>0347</t>
+  </si>
+  <si>
+    <t>CAMPUS PADANG</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>KC ARGA MAKMUR</t>
+  </si>
+  <si>
+    <t>0357</t>
+  </si>
+  <si>
+    <t>KC BANDARJAYA</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>KC BENGKULU</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>KC CURUP</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>KC KALIANDA</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>KC KOTA BUMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +385,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,14 +405,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,19 +414,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
+  <cellStyles count="2">
     <cellStyle name="60% - Accent2" xfId="1" builtinId="36"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -138,9 +459,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +499,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +605,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,23 +755,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA829AF0-EE16-4607-A9C8-E97712FA43D8}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,33 +783,1166 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/DataImport/Template_Data_Branch (1).xlsx
+++ b/public/DataImport/Template_Data_Branch (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5CA1E-F5BE-49DD-B3B3-825AB0E76CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D426B-0C9D-41A2-9C46-3AA00053AE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A70ECEC-4C3A-4CD6-8485-3ECBF184CBA8}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
